--- a/HWIL/Updated MSc Project Choice 2324 (1).xlsx
+++ b/HWIL/Updated MSc Project Choice 2324 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lic9\Desktop\HWIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lic9\Desktop\HWIL_THESIS\HWIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48F8F0-BBE4-447B-B3DC-6407BD38A6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE97DB-D530-4194-BF3C-D58E76BBC5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{349ACA1A-5CEA-46B0-9B9E-1D5DCA2A5AEA}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{349ACA1A-5CEA-46B0-9B9E-1D5DCA2A5AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="MSc_Projects_23_24" sheetId="3" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>Shreejith Shanker</t>
   </si>
   <si>
-    <t>Hardware-in-the-loop emulator for in-vehicle Controller Area Networks</t>
-  </si>
-  <si>
     <t>Light-weight deep learning in wireless radio systems</t>
   </si>
   <si>
@@ -317,6 +314,10 @@
   </si>
   <si>
     <t xml:space="preserve">In this project, we will build a hardware in the loop runtime for vehicular ECUs using a RISC-V / Microblaze softcore processor as the compute core for each ECU. We will integrate the ability to inject errors (like DoS, replay and spoofing) into the emulation framework with multiple ECUs spread across one or more FPGA development boards. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardware-in-the-loop emulator for in-vehicle Controller Area Networks</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -816,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E353A3-4FCA-4195-A149-C7DCB13B7377}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
@@ -1254,10 +1255,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -1266,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1294,20 +1295,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2fb1291a-44ad-4c3d-9248-f6c1870af49b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2fb1291a-44ad-4c3d-9248-f6c1870af49b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1552,19 +1553,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B92E395-3098-4CF2-B57A-3A15AFA15E14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0BB1272-DB95-4C21-9828-A7EC949AD10E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2fb1291a-44ad-4c3d-9248-f6c1870af49b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B92E395-3098-4CF2-B57A-3A15AFA15E14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
